--- a/Demo08/시퀸스 다이얼그램.xlsx
+++ b/Demo08/시퀸스 다이얼그램.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16828"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Github_gameServerLessonsCodes\trunk\Demo08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Practice\GameServerProgramming\Demo08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,8 +80,36 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13907,7 +13935,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Demo08/시퀸스 다이얼그램.xlsx
+++ b/Demo08/시퀸스 다이얼그램.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="11715" tabRatio="683" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21345" windowHeight="11715" tabRatio="683" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,22 @@
     <sheet name="방 나가기" sheetId="6" r:id="rId8"/>
     <sheet name="방 채팅" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">    </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5204,15 +5213,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>309590</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101606</xdr:rowOff>
+      <xdr:colOff>157190</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>450877</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>198446</xdr:rowOff>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5223,10 +5232,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3738590" y="311156"/>
-          <a:ext cx="1512887" cy="935040"/>
+          <a:off x="3586190" y="1"/>
+          <a:ext cx="1595410" cy="857250"/>
           <a:chOff x="427" y="270"/>
-          <a:chExt cx="91" cy="96"/>
+          <a:chExt cx="99" cy="99"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -5356,6 +5365,11 @@
               <a:rPr lang="en-US" altLang="ko-KR" sz="1200"/>
               <a:t>   </a:t>
             </a:r>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200"/>
+          </a:p>
+          <a:p>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US" sz="1200"/>
               <a:t>채팅 서버</a:t>
@@ -5380,7 +5394,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="427" y="270"/>
-            <a:ext cx="78" cy="78"/>
+            <a:ext cx="99" cy="99"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -13870,8 +13884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13916,14 +13930,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13934,7 +13954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
